--- a/report/results.xlsx
+++ b/report/results.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Documents/Artificial Intelligence St Andrews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaamour/Projects/CS5012-P1/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A22BE0-8D1A-094B-AA71-450504D7DB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B5012-5C7B-6D42-B58F-E0A0E929694E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F6182564-31C7-924B-B9D0-8AC2A6CDA17F}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{F6182564-31C7-924B-B9D0-8AC2A6CDA17F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$B$2:$F$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$3:$F$3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,25 +37,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No smoothing, naïve UNK</t>
   </si>
   <si>
-    <t>Word emission smoothing,  naïve UNK</t>
+    <t>Smoothing, basic UNK rules</t>
+  </si>
+  <si>
+    <t>Word emission smoothing</t>
+  </si>
+  <si>
+    <t>Tag &amp; Word smoothing</t>
+  </si>
+  <si>
+    <t>Smoothing, extra UNK rules</t>
+  </si>
+  <si>
+    <t>Smoothing, UNK rule combinations</t>
+  </si>
+  <si>
+    <t>Smoothing, UNK morphology rules</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="CMU Sans Serif Medium"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +116,966 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0709408413210963E-2"/>
+                  <c:y val="-4.0005287901446737E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3E13-D94F-B097-57D99AC02497}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No smoothing, naïve UNK</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Word emission smoothing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tag &amp; Word smoothing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Smoothing, basic UNK rules</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Smoothing, extra UNK rules</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Smoothing, UNK rule combinations</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Smoothing, UNK morphology rules</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.89939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93369999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E13-D94F-B097-57D99AC02497}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="344140847"/>
+        <c:axId val="344572319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="344140847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-600000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344572319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344572319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:latin typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:rPr>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Sans Serif Medium" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344140847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728DB423-60FA-3F49-958A-337C57E0425A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,31 +1375,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06444C0E-577E-F946-AAB2-B32C43F9CEB6}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>89.94</v>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.93369999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>